--- a/export/Result_v28.xlsx
+++ b/export/Result_v28.xlsx
@@ -1263,7 +1263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1397,15 +1397,19 @@
           <t>default_campaign_name</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>default_campaign_name_creative</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>tool.png</t>
+          <t>creative.png</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://trace.rtbasia.com/tkp?rta_k=fCKmfCn4oj&amp;utm_campaign=default_campaign_name&amp;utm_source=TTD&amp;utm_content=%%AdGroupID%%_250x250&amp;utm_medium=%%Media%%&amp;device=Mobile&amp;imei=__IMEI__&amp;mac=__MAC__&amp;mac1=__MAC1__&amp;idfa=__IDFA__&amp;androidid=__ANDROIDID__&amp;oaid=__OAID__&amp;uid=%%TDID%%&amp;custid1=__CUSTID1__&amp;custid2=__CUSTID2__&amp;os=__OS__&amp;ua=__UA__&amp;ts=__TS__&amp;clientip=%%IP%%&amp;caid=__CAID__</t>
+          <t>https://trace.rtbasia.com/tkp?rta_k=fCKmfCn4oj&amp;utm_campaign=default_campaign_name&amp;utm_source=TTD&amp;utm_content=%%AdGroupID%%_300x320&amp;utm_medium=%%Media%%&amp;device=Mobile&amp;imei=__IMEI__&amp;mac=__MAC__&amp;mac1=__MAC1__&amp;idfa=__IDFA__&amp;androidid=__ANDROIDID__&amp;oaid=__OAID__&amp;uid=%%TDID%%&amp;custid1=__CUSTID1__&amp;custid2=__CUSTID2__&amp;os=__OS__&amp;ua=__UA__&amp;ts=__TS__&amp;clientip=%%IP%%&amp;caid=__CAID__</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1428,6 +1432,48 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>default_campaign_name</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>default_campaign_name_tool</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>tool.png</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://trace.rtbasia.com/tkp?rta_k=fCKmfCn4oj&amp;utm_campaign=default_campaign_name&amp;utm_source=TTD&amp;utm_content=%%AdGroupID%%_250x250&amp;utm_medium=%%Media%%&amp;device=Mobile&amp;imei=__IMEI__&amp;mac=__MAC__&amp;mac1=__MAC1__&amp;idfa=__IDFA__&amp;androidid=__ANDROIDID__&amp;oaid=__OAID__&amp;uid=%%TDID%%&amp;custid1=__CUSTID1__&amp;custid2=__CUSTID2__&amp;os=__OS__&amp;ua=__UA__&amp;ts=__TS__&amp;clientip=%%IP%%&amp;caid=__CAID__</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>http://www.client.com/</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/export/Result_v28.xlsx
+++ b/export/Result_v28.xlsx
@@ -1263,7 +1263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1441,17 +1441,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>default_campaign_name_图片</t>
+          <t>default_campaign_name_tool</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>图片.png</t>
+          <t>tool.png</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://trace.rtbasia.com/tkp?rta_k=fCKmfCn4oj&amp;utm_campaign=default_campaign_name&amp;utm_source=TTD&amp;utm_content=%%AdGroupID%%_300x250&amp;utm_medium=%%Media%%&amp;device=Mobile&amp;imei=__IMEI__&amp;mac=__MAC__&amp;mac1=__MAC1__&amp;idfa=__IDFA__&amp;androidid=__ANDROIDID__&amp;oaid=__OAID__&amp;uid=%%TDID%%&amp;custid1=__CUSTID1__&amp;custid2=__CUSTID2__&amp;os=__OS__&amp;ua=__UA__&amp;ts=__TS__&amp;clientip=%%IP%%&amp;caid=__CAID__</t>
+          <t>https://trace.rtbasia.com/tkp?rta_k=fCKmfCn4oj&amp;utm_campaign=default_campaign_name&amp;utm_source=TTD&amp;utm_content=%%AdGroupID%%_250x250&amp;utm_medium=%%Media%%&amp;device=Mobile&amp;imei=__IMEI__&amp;mac=__MAC__&amp;mac1=__MAC1__&amp;idfa=__IDFA__&amp;androidid=__ANDROIDID__&amp;oaid=__OAID__&amp;uid=%%TDID%%&amp;custid1=__CUSTID1__&amp;custid2=__CUSTID2__&amp;os=__OS__&amp;ua=__UA__&amp;ts=__TS__&amp;clientip=%%IP%%&amp;caid=__CAID__</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1474,6 +1474,90 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>default_campaign_name</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>default_campaign_name_creative</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>creative-123.png</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://trace.rtbasia.com/tkp?rta_k=fCKmfCn4oj&amp;utm_campaign=default_campaign_name&amp;utm_source=TTD&amp;utm_content=%%AdGroupID%%_300x320&amp;utm_medium=%%Media%%&amp;device=Mobile&amp;imei=__IMEI__&amp;mac=__MAC__&amp;mac1=__MAC1__&amp;idfa=__IDFA__&amp;androidid=__ANDROIDID__&amp;oaid=__OAID__&amp;uid=%%TDID%%&amp;custid1=__CUSTID1__&amp;custid2=__CUSTID2__&amp;os=__OS__&amp;ua=__UA__&amp;ts=__TS__&amp;clientip=%%IP%%&amp;caid=__CAID__</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>http://www.client.com/</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>default_campaign_name</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>default_campaign_name_tool</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>tool-123.png</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://trace.rtbasia.com/tkp?rta_k=fCKmfCn4oj&amp;utm_campaign=default_campaign_name&amp;utm_source=TTD&amp;utm_content=%%AdGroupID%%_250x250&amp;utm_medium=%%Media%%&amp;device=Mobile&amp;imei=__IMEI__&amp;mac=__MAC__&amp;mac1=__MAC1__&amp;idfa=__IDFA__&amp;androidid=__ANDROIDID__&amp;oaid=__OAID__&amp;uid=%%TDID%%&amp;custid1=__CUSTID1__&amp;custid2=__CUSTID2__&amp;os=__OS__&amp;ua=__UA__&amp;ts=__TS__&amp;clientip=%%IP%%&amp;caid=__CAID__</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>http://www.client.com/</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
